--- a/Priority Effects - Github/Data/Cover/PE_Cover_Inner_Summer_2023_Cleaned.xlsx
+++ b/Priority Effects - Github/Data/Cover/PE_Cover_Inner_Summer_2023_Cleaned.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/Priority-Effects/Priority Effects - Github/Data/Cover/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E7CFE2-17B7-2948-9641-5F4CD8F3197C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="740" windowWidth="16480" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$280</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="101">
   <si>
     <t>Block</t>
   </si>
@@ -289,15 +301,6 @@
     <t>Trifolium pratense</t>
   </si>
   <si>
-    <t>ALLSPP</t>
-  </si>
-  <si>
-    <t>Allium spp.</t>
-  </si>
-  <si>
-    <t>Pressed; can ID to species</t>
-  </si>
-  <si>
     <t>GEUCAN</t>
   </si>
   <si>
@@ -310,31 +313,44 @@
     <t>Juncus interior</t>
   </si>
   <si>
-    <t>PHLARU</t>
-  </si>
-  <si>
     <t>Phalaris arundinacea</t>
+  </si>
+  <si>
+    <t>Allium vineale</t>
+  </si>
+  <si>
+    <t>Pressed; can ID to species: ID'd as Allium vineale</t>
+  </si>
+  <si>
+    <t>ALLVIN</t>
+  </si>
+  <si>
+    <t>PHAARU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -343,39 +359,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -565,24 +586,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="12.13"/>
-    <col customWidth="1" min="5" max="5" width="21.13"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,9 +631,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -616,15 +642,15 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -633,15 +659,15 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -650,15 +676,15 @@
         <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -667,15 +693,15 @@
         <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -684,15 +710,15 @@
         <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -701,15 +727,15 @@
         <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -718,15 +744,15 @@
         <v>20</v>
       </c>
       <c r="D8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -735,15 +761,15 @@
         <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -752,15 +778,15 @@
         <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -769,15 +795,15 @@
         <v>26</v>
       </c>
       <c r="D11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
@@ -786,15 +812,15 @@
         <v>8</v>
       </c>
       <c r="D12" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>28</v>
@@ -803,15 +829,15 @@
         <v>29</v>
       </c>
       <c r="D13" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
@@ -820,15 +846,15 @@
         <v>31</v>
       </c>
       <c r="D14" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -837,15 +863,15 @@
         <v>26</v>
       </c>
       <c r="D15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -854,15 +880,15 @@
         <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -871,15 +897,15 @@
         <v>33</v>
       </c>
       <c r="D17" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
@@ -888,15 +914,15 @@
         <v>22</v>
       </c>
       <c r="D18" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>35</v>
@@ -905,15 +931,15 @@
         <v>36</v>
       </c>
       <c r="D19" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>35</v>
@@ -922,15 +948,15 @@
         <v>26</v>
       </c>
       <c r="D20" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
@@ -939,15 +965,15 @@
         <v>12</v>
       </c>
       <c r="D21" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
@@ -965,9 +991,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>35</v>
@@ -985,9 +1011,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>35</v>
@@ -1002,9 +1028,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
@@ -1019,9 +1045,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
@@ -1030,15 +1056,15 @@
         <v>24</v>
       </c>
       <c r="D26" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
@@ -1047,15 +1073,15 @@
         <v>48</v>
       </c>
       <c r="D27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>35</v>
@@ -1064,15 +1090,15 @@
         <v>50</v>
       </c>
       <c r="D28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>35</v>
@@ -1087,9 +1113,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>35</v>
@@ -1104,9 +1130,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>35</v>
@@ -1121,9 +1147,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>58</v>
@@ -1132,15 +1158,15 @@
         <v>36</v>
       </c>
       <c r="D32" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>58</v>
@@ -1149,15 +1175,15 @@
         <v>10</v>
       </c>
       <c r="D33" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>58</v>
@@ -1166,15 +1192,15 @@
         <v>50</v>
       </c>
       <c r="D34" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>58</v>
@@ -1183,15 +1209,15 @@
         <v>18</v>
       </c>
       <c r="D35" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>58</v>
@@ -1200,15 +1226,15 @@
         <v>26</v>
       </c>
       <c r="D36" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>58</v>
@@ -1217,15 +1243,15 @@
         <v>59</v>
       </c>
       <c r="D37" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>58</v>
@@ -1234,15 +1260,15 @@
         <v>61</v>
       </c>
       <c r="D38" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>58</v>
@@ -1251,15 +1277,15 @@
         <v>12</v>
       </c>
       <c r="D39" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>58</v>
@@ -1268,15 +1294,15 @@
         <v>8</v>
       </c>
       <c r="D40" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>58</v>
@@ -1285,15 +1311,15 @@
         <v>33</v>
       </c>
       <c r="D41" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>58</v>
@@ -1308,9 +1334,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>58</v>
@@ -1325,9 +1351,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>58</v>
@@ -1342,9 +1368,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>58</v>
@@ -1353,15 +1379,15 @@
         <v>16</v>
       </c>
       <c r="D45" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>65</v>
@@ -1370,15 +1396,15 @@
         <v>8</v>
       </c>
       <c r="D46" s="2">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>65</v>
@@ -1387,15 +1413,15 @@
         <v>12</v>
       </c>
       <c r="D47" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>65</v>
@@ -1404,15 +1430,15 @@
         <v>50</v>
       </c>
       <c r="D48" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>65</v>
@@ -1421,15 +1447,15 @@
         <v>67</v>
       </c>
       <c r="D49" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>65</v>
@@ -1444,9 +1470,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>65</v>
@@ -1461,9 +1487,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>65</v>
@@ -1472,15 +1498,15 @@
         <v>52</v>
       </c>
       <c r="D52" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>65</v>
@@ -1489,15 +1515,15 @@
         <v>36</v>
       </c>
       <c r="D53" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>65</v>
@@ -1506,15 +1532,15 @@
         <v>29</v>
       </c>
       <c r="D54" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>65</v>
@@ -1529,9 +1555,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -1546,9 +1572,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>58</v>
@@ -1557,15 +1583,15 @@
         <v>8</v>
       </c>
       <c r="D57" s="2">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>58</v>
@@ -1574,15 +1600,15 @@
         <v>12</v>
       </c>
       <c r="D58" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>58</v>
@@ -1591,15 +1617,15 @@
         <v>61</v>
       </c>
       <c r="D59" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>58</v>
@@ -1608,15 +1634,15 @@
         <v>10</v>
       </c>
       <c r="D60" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>58</v>
@@ -1631,9 +1657,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>58</v>
@@ -1642,15 +1668,15 @@
         <v>77</v>
       </c>
       <c r="D62" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>58</v>
@@ -1659,15 +1685,15 @@
         <v>50</v>
       </c>
       <c r="D63" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>58</v>
@@ -1676,15 +1702,15 @@
         <v>22</v>
       </c>
       <c r="D64" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>58</v>
@@ -1699,9 +1725,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>58</v>
@@ -1716,9 +1742,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>7</v>
@@ -1727,15 +1753,15 @@
         <v>8</v>
       </c>
       <c r="D67" s="2">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>7</v>
@@ -1744,15 +1770,15 @@
         <v>22</v>
       </c>
       <c r="D68" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>7</v>
@@ -1761,15 +1787,15 @@
         <v>12</v>
       </c>
       <c r="D69" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
@@ -1784,9 +1810,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
@@ -1795,15 +1821,15 @@
         <v>29</v>
       </c>
       <c r="D71" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>28</v>
@@ -1812,15 +1838,15 @@
         <v>8</v>
       </c>
       <c r="D72" s="2">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>28</v>
@@ -1829,15 +1855,15 @@
         <v>50</v>
       </c>
       <c r="D73" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>28</v>
@@ -1846,15 +1872,15 @@
         <v>16</v>
       </c>
       <c r="D74" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>28</v>
@@ -1869,9 +1895,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>28</v>
@@ -1880,15 +1906,15 @@
         <v>22</v>
       </c>
       <c r="D76" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>28</v>
@@ -1897,15 +1923,15 @@
         <v>20</v>
       </c>
       <c r="D77" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>28</v>
@@ -1914,15 +1940,15 @@
         <v>12</v>
       </c>
       <c r="D78" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>28</v>
@@ -1937,9 +1963,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>65</v>
@@ -1948,15 +1974,15 @@
         <v>8</v>
       </c>
       <c r="D80" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>65</v>
@@ -1971,9 +1997,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>65</v>
@@ -1988,9 +2014,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>65</v>
@@ -1999,15 +2025,15 @@
         <v>26</v>
       </c>
       <c r="D83" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>65</v>
@@ -2016,15 +2042,15 @@
         <v>50</v>
       </c>
       <c r="D84" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>65</v>
@@ -2033,15 +2059,15 @@
         <v>12</v>
       </c>
       <c r="D85" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>35</v>
@@ -2050,15 +2076,15 @@
         <v>8</v>
       </c>
       <c r="D86" s="2">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>35</v>
@@ -2067,15 +2093,15 @@
         <v>29</v>
       </c>
       <c r="D87" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>35</v>
@@ -2084,15 +2110,15 @@
         <v>12</v>
       </c>
       <c r="D88" s="2">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>35</v>
@@ -2101,15 +2127,15 @@
         <v>50</v>
       </c>
       <c r="D89" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>35</v>
@@ -2118,15 +2144,15 @@
         <v>79</v>
       </c>
       <c r="D90" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>35</v>
@@ -2141,9 +2167,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>35</v>
@@ -2152,15 +2178,15 @@
         <v>26</v>
       </c>
       <c r="D92" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>35</v>
@@ -2169,15 +2195,15 @@
         <v>71</v>
       </c>
       <c r="D93" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>35</v>
@@ -2192,9 +2218,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>65</v>
@@ -2203,15 +2229,15 @@
         <v>12</v>
       </c>
       <c r="D95" s="2">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>65</v>
@@ -2220,15 +2246,15 @@
         <v>26</v>
       </c>
       <c r="D96" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>65</v>
@@ -2243,9 +2269,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>65</v>
@@ -2254,15 +2280,15 @@
         <v>81</v>
       </c>
       <c r="D98" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>65</v>
@@ -2271,15 +2297,15 @@
         <v>50</v>
       </c>
       <c r="D99" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>65</v>
@@ -2288,15 +2314,15 @@
         <v>14</v>
       </c>
       <c r="D100" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>65</v>
@@ -2305,15 +2331,15 @@
         <v>18</v>
       </c>
       <c r="D101" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>65</v>
@@ -2328,9 +2354,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>65</v>
@@ -2345,9 +2371,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>65</v>
@@ -2362,9 +2388,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>58</v>
@@ -2373,15 +2399,15 @@
         <v>8</v>
       </c>
       <c r="D105" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>58</v>
@@ -2390,15 +2416,15 @@
         <v>12</v>
       </c>
       <c r="D106" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>58</v>
@@ -2407,15 +2433,15 @@
         <v>61</v>
       </c>
       <c r="D107" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>58</v>
@@ -2424,7 +2450,7 @@
         <v>83</v>
       </c>
       <c r="D108" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>84</v>
@@ -2433,9 +2459,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>58</v>
@@ -2450,9 +2476,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>58</v>
@@ -2461,15 +2487,15 @@
         <v>54</v>
       </c>
       <c r="D110" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>58</v>
@@ -2478,15 +2504,15 @@
         <v>33</v>
       </c>
       <c r="D111" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>58</v>
@@ -2495,15 +2521,15 @@
         <v>81</v>
       </c>
       <c r="D112" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>58</v>
@@ -2512,15 +2538,15 @@
         <v>10</v>
       </c>
       <c r="D113" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>58</v>
@@ -2529,15 +2555,15 @@
         <v>14</v>
       </c>
       <c r="D114" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>58</v>
@@ -2546,15 +2572,15 @@
         <v>18</v>
       </c>
       <c r="D115" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>58</v>
@@ -2569,9 +2595,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>58</v>
@@ -2580,15 +2606,15 @@
         <v>50</v>
       </c>
       <c r="D117" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>58</v>
@@ -2597,15 +2623,15 @@
         <v>26</v>
       </c>
       <c r="D118" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>58</v>
@@ -2614,15 +2640,15 @@
         <v>31</v>
       </c>
       <c r="D119" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>7</v>
@@ -2631,15 +2657,15 @@
         <v>10</v>
       </c>
       <c r="D120" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>7</v>
@@ -2648,15 +2674,15 @@
         <v>54</v>
       </c>
       <c r="D121" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>7</v>
@@ -2665,15 +2691,15 @@
         <v>26</v>
       </c>
       <c r="D122" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>7</v>
@@ -2682,15 +2708,15 @@
         <v>50</v>
       </c>
       <c r="D123" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>7</v>
@@ -2705,9 +2731,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>7</v>
@@ -2716,15 +2742,15 @@
         <v>12</v>
       </c>
       <c r="D125" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>7</v>
@@ -2733,15 +2759,15 @@
         <v>61</v>
       </c>
       <c r="D126" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>7</v>
@@ -2750,15 +2776,15 @@
         <v>79</v>
       </c>
       <c r="D127" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>7</v>
@@ -2773,9 +2799,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>7</v>
@@ -2784,15 +2810,15 @@
         <v>86</v>
       </c>
       <c r="D129" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>35</v>
@@ -2801,15 +2827,15 @@
         <v>22</v>
       </c>
       <c r="D130" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>35</v>
@@ -2818,15 +2844,15 @@
         <v>18</v>
       </c>
       <c r="D131" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>35</v>
@@ -2835,15 +2861,15 @@
         <v>26</v>
       </c>
       <c r="D132" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>35</v>
@@ -2852,15 +2878,15 @@
         <v>52</v>
       </c>
       <c r="D133" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>35</v>
@@ -2869,15 +2895,15 @@
         <v>71</v>
       </c>
       <c r="D134" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>35</v>
@@ -2886,15 +2912,15 @@
         <v>8</v>
       </c>
       <c r="D135" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>35</v>
@@ -2903,15 +2929,15 @@
         <v>12</v>
       </c>
       <c r="D136" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>35</v>
@@ -2920,15 +2946,15 @@
         <v>83</v>
       </c>
       <c r="D137" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>35</v>
@@ -2937,15 +2963,15 @@
         <v>79</v>
       </c>
       <c r="D138" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>35</v>
@@ -2954,15 +2980,15 @@
         <v>31</v>
       </c>
       <c r="D139" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>28</v>
@@ -2971,15 +2997,15 @@
         <v>12</v>
       </c>
       <c r="D140" s="2">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>28</v>
@@ -2988,15 +3014,15 @@
         <v>79</v>
       </c>
       <c r="D141" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>28</v>
@@ -3005,15 +3031,15 @@
         <v>83</v>
       </c>
       <c r="D142" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>28</v>
@@ -3022,15 +3048,15 @@
         <v>50</v>
       </c>
       <c r="D143" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>28</v>
@@ -3039,15 +3065,15 @@
         <v>26</v>
       </c>
       <c r="D144" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>28</v>
@@ -3062,9 +3088,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>28</v>
@@ -3073,15 +3099,15 @@
         <v>54</v>
       </c>
       <c r="D146" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>58</v>
@@ -3090,15 +3116,15 @@
         <v>12</v>
       </c>
       <c r="D147" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>58</v>
@@ -3107,15 +3133,15 @@
         <v>14</v>
       </c>
       <c r="D148" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>58</v>
@@ -3124,15 +3150,15 @@
         <v>50</v>
       </c>
       <c r="D149" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>58</v>
@@ -3141,15 +3167,15 @@
         <v>18</v>
       </c>
       <c r="D150" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>58</v>
@@ -3158,15 +3184,15 @@
         <v>79</v>
       </c>
       <c r="D151" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>58</v>
@@ -3175,15 +3201,15 @@
         <v>22</v>
       </c>
       <c r="D152" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>58</v>
@@ -3192,15 +3218,15 @@
         <v>26</v>
       </c>
       <c r="D153" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>58</v>
@@ -3209,15 +3235,15 @@
         <v>29</v>
       </c>
       <c r="D154" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>28</v>
@@ -3226,15 +3252,15 @@
         <v>18</v>
       </c>
       <c r="D155" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>28</v>
@@ -3243,15 +3269,15 @@
         <v>26</v>
       </c>
       <c r="D156" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>28</v>
@@ -3260,15 +3286,15 @@
         <v>22</v>
       </c>
       <c r="D157" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>28</v>
@@ -3277,15 +3303,15 @@
         <v>8</v>
       </c>
       <c r="D158" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>28</v>
@@ -3294,15 +3320,15 @@
         <v>12</v>
       </c>
       <c r="D159" s="2">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>28</v>
@@ -3311,15 +3337,15 @@
         <v>79</v>
       </c>
       <c r="D160" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>65</v>
@@ -3328,15 +3354,15 @@
         <v>12</v>
       </c>
       <c r="D161" s="2">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>65</v>
@@ -3345,15 +3371,15 @@
         <v>50</v>
       </c>
       <c r="D162" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>65</v>
@@ -3368,9 +3394,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>65</v>
@@ -3379,15 +3405,15 @@
         <v>18</v>
       </c>
       <c r="D164" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>65</v>
@@ -3396,15 +3422,15 @@
         <v>81</v>
       </c>
       <c r="D165" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>65</v>
@@ -3413,15 +3439,15 @@
         <v>26</v>
       </c>
       <c r="D166" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>65</v>
@@ -3436,9 +3462,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>7</v>
@@ -3447,15 +3473,15 @@
         <v>10</v>
       </c>
       <c r="D168" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>7</v>
@@ -3464,15 +3490,15 @@
         <v>44</v>
       </c>
       <c r="D169" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>7</v>
@@ -3481,15 +3507,15 @@
         <v>50</v>
       </c>
       <c r="D170" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>7</v>
@@ -3498,15 +3524,15 @@
         <v>81</v>
       </c>
       <c r="D171" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>7</v>
@@ -3515,15 +3541,15 @@
         <v>16</v>
       </c>
       <c r="D172" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>7</v>
@@ -3532,15 +3558,15 @@
         <v>86</v>
       </c>
       <c r="D173" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>7</v>
@@ -3549,15 +3575,15 @@
         <v>12</v>
       </c>
       <c r="D174" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>7</v>
@@ -3566,15 +3592,15 @@
         <v>79</v>
       </c>
       <c r="D175" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>7</v>
@@ -3589,9 +3615,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>7</v>
@@ -3600,15 +3626,15 @@
         <v>26</v>
       </c>
       <c r="D177" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>7</v>
@@ -3623,9 +3649,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>7</v>
@@ -3634,15 +3660,15 @@
         <v>61</v>
       </c>
       <c r="D179" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>35</v>
@@ -3651,15 +3677,15 @@
         <v>12</v>
       </c>
       <c r="D180" s="2">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>35</v>
@@ -3668,15 +3694,15 @@
         <v>50</v>
       </c>
       <c r="D181" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>35</v>
@@ -3685,15 +3711,15 @@
         <v>18</v>
       </c>
       <c r="D182" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>35</v>
@@ -3702,15 +3728,15 @@
         <v>81</v>
       </c>
       <c r="D183" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>35</v>
@@ -3719,15 +3745,15 @@
         <v>26</v>
       </c>
       <c r="D184" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>35</v>
@@ -3736,15 +3762,15 @@
         <v>71</v>
       </c>
       <c r="D185" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>35</v>
@@ -3753,15 +3779,15 @@
         <v>61</v>
       </c>
       <c r="D186" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>7</v>
@@ -3770,15 +3796,15 @@
         <v>14</v>
       </c>
       <c r="D187" s="2">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>7</v>
@@ -3787,15 +3813,15 @@
         <v>22</v>
       </c>
       <c r="D188" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>7</v>
@@ -3804,15 +3830,15 @@
         <v>54</v>
       </c>
       <c r="D189" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>7</v>
@@ -3821,15 +3847,15 @@
         <v>44</v>
       </c>
       <c r="D190" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>7</v>
@@ -3838,15 +3864,15 @@
         <v>88</v>
       </c>
       <c r="D191" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>7</v>
@@ -3855,15 +3881,15 @@
         <v>50</v>
       </c>
       <c r="D192" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>7</v>
@@ -3878,9 +3904,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>7</v>
@@ -3889,15 +3915,15 @@
         <v>10</v>
       </c>
       <c r="D194" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>7</v>
@@ -3906,15 +3932,15 @@
         <v>79</v>
       </c>
       <c r="D195" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>7</v>
@@ -3923,15 +3949,15 @@
         <v>8</v>
       </c>
       <c r="D196" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>7</v>
@@ -3940,15 +3966,15 @@
         <v>12</v>
       </c>
       <c r="D197" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>7</v>
@@ -3957,15 +3983,15 @@
         <v>16</v>
       </c>
       <c r="D198" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>7</v>
@@ -3974,15 +4000,15 @@
         <v>61</v>
       </c>
       <c r="D199" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>7</v>
@@ -3991,15 +4017,15 @@
         <v>90</v>
       </c>
       <c r="D200" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>58</v>
@@ -4008,15 +4034,15 @@
         <v>10</v>
       </c>
       <c r="D201" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>58</v>
@@ -4025,15 +4051,15 @@
         <v>14</v>
       </c>
       <c r="D202" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>58</v>
@@ -4042,15 +4068,15 @@
         <v>67</v>
       </c>
       <c r="D203" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>58</v>
@@ -4059,15 +4085,15 @@
         <v>50</v>
       </c>
       <c r="D204" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>58</v>
@@ -4076,15 +4102,15 @@
         <v>22</v>
       </c>
       <c r="D205" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>58</v>
@@ -4093,15 +4119,15 @@
         <v>12</v>
       </c>
       <c r="D206" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>58</v>
@@ -4110,15 +4136,15 @@
         <v>16</v>
       </c>
       <c r="D207" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>58</v>
@@ -4127,35 +4153,35 @@
         <v>79</v>
       </c>
       <c r="D208" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D209" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>58</v>
@@ -4164,15 +4190,15 @@
         <v>18</v>
       </c>
       <c r="D210" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>58</v>
@@ -4181,15 +4207,15 @@
         <v>26</v>
       </c>
       <c r="D211" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>58</v>
@@ -4198,15 +4224,15 @@
         <v>77</v>
       </c>
       <c r="D212" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>58</v>
@@ -4215,15 +4241,15 @@
         <v>20</v>
       </c>
       <c r="D213" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>58</v>
@@ -4232,15 +4258,15 @@
         <v>8</v>
       </c>
       <c r="D214" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>58</v>
@@ -4249,15 +4275,15 @@
         <v>36</v>
       </c>
       <c r="D215" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>58</v>
@@ -4266,15 +4292,15 @@
         <v>61</v>
       </c>
       <c r="D216" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>35</v>
@@ -4283,15 +4309,15 @@
         <v>14</v>
       </c>
       <c r="D217" s="2">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>35</v>
@@ -4300,15 +4326,15 @@
         <v>16</v>
       </c>
       <c r="D218" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>35</v>
@@ -4317,15 +4343,15 @@
         <v>50</v>
       </c>
       <c r="D219" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>35</v>
@@ -4334,15 +4360,15 @@
         <v>31</v>
       </c>
       <c r="D220" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>35</v>
@@ -4351,15 +4377,15 @@
         <v>12</v>
       </c>
       <c r="D221" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>35</v>
@@ -4368,15 +4394,15 @@
         <v>8</v>
       </c>
       <c r="D222" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>35</v>
@@ -4391,26 +4417,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D224" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>35</v>
@@ -4419,32 +4445,35 @@
         <v>18</v>
       </c>
       <c r="D225" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D226" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>97</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>28</v>
@@ -4453,15 +4482,15 @@
         <v>8</v>
       </c>
       <c r="D227" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>28</v>
@@ -4470,15 +4499,15 @@
         <v>12</v>
       </c>
       <c r="D228" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>28</v>
@@ -4487,15 +4516,15 @@
         <v>61</v>
       </c>
       <c r="D229" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>28</v>
@@ -4504,15 +4533,15 @@
         <v>10</v>
       </c>
       <c r="D230" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>28</v>
@@ -4521,15 +4550,15 @@
         <v>22</v>
       </c>
       <c r="D231" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>28</v>
@@ -4538,15 +4567,15 @@
         <v>18</v>
       </c>
       <c r="D232" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>28</v>
@@ -4555,15 +4584,15 @@
         <v>26</v>
       </c>
       <c r="D233" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>28</v>
@@ -4572,15 +4601,15 @@
         <v>16</v>
       </c>
       <c r="D234" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>65</v>
@@ -4589,15 +4618,15 @@
         <v>8</v>
       </c>
       <c r="D235" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>65</v>
@@ -4606,15 +4635,15 @@
         <v>12</v>
       </c>
       <c r="D236" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>65</v>
@@ -4623,15 +4652,15 @@
         <v>26</v>
       </c>
       <c r="D237" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>65</v>
@@ -4646,9 +4675,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>65</v>
@@ -4663,9 +4692,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>65</v>
@@ -4674,15 +4703,15 @@
         <v>81</v>
       </c>
       <c r="D240" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>65</v>
@@ -4691,15 +4720,15 @@
         <v>50</v>
       </c>
       <c r="D241" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>65</v>
@@ -4708,15 +4737,15 @@
         <v>8</v>
       </c>
       <c r="D242" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>65</v>
@@ -4731,9 +4760,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>65</v>
@@ -4742,15 +4771,15 @@
         <v>12</v>
       </c>
       <c r="D244" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>65</v>
@@ -4759,15 +4788,15 @@
         <v>26</v>
       </c>
       <c r="D245" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>28</v>
@@ -4776,15 +4805,15 @@
         <v>22</v>
       </c>
       <c r="D246" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>28</v>
@@ -4793,15 +4822,15 @@
         <v>8</v>
       </c>
       <c r="D247" s="2">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>28</v>
@@ -4810,15 +4839,15 @@
         <v>33</v>
       </c>
       <c r="D248" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>28</v>
@@ -4833,9 +4862,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>28</v>
@@ -4844,15 +4873,15 @@
         <v>12</v>
       </c>
       <c r="D250" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>28</v>
@@ -4861,15 +4890,15 @@
         <v>52</v>
       </c>
       <c r="D251" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>28</v>
@@ -4878,32 +4907,32 @@
         <v>71</v>
       </c>
       <c r="D252" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D253" s="2">
         <v>0.1</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="254">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>7</v>
@@ -4912,15 +4941,15 @@
         <v>8</v>
       </c>
       <c r="D254" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>7</v>
@@ -4929,15 +4958,15 @@
         <v>14</v>
       </c>
       <c r="D255" s="2">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>7</v>
@@ -4946,15 +4975,15 @@
         <v>10</v>
       </c>
       <c r="D256" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>7</v>
@@ -4963,15 +4992,15 @@
         <v>20</v>
       </c>
       <c r="D257" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>7</v>
@@ -4980,15 +5009,15 @@
         <v>31</v>
       </c>
       <c r="D258" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>7</v>
@@ -5003,9 +5032,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>58</v>
@@ -5014,15 +5043,15 @@
         <v>10</v>
       </c>
       <c r="D260" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>58</v>
@@ -5031,15 +5060,15 @@
         <v>16</v>
       </c>
       <c r="D261" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>58</v>
@@ -5048,15 +5077,15 @@
         <v>50</v>
       </c>
       <c r="D262" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>58</v>
@@ -5071,9 +5100,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>58</v>
@@ -5082,15 +5111,15 @@
         <v>14</v>
       </c>
       <c r="D264" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>58</v>
@@ -5099,15 +5128,15 @@
         <v>8</v>
       </c>
       <c r="D265" s="2">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>58</v>
@@ -5116,15 +5145,15 @@
         <v>81</v>
       </c>
       <c r="D266" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>58</v>
@@ -5133,15 +5162,15 @@
         <v>18</v>
       </c>
       <c r="D267" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>58</v>
@@ -5150,15 +5179,15 @@
         <v>20</v>
       </c>
       <c r="D268" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>58</v>
@@ -5167,15 +5196,15 @@
         <v>12</v>
       </c>
       <c r="D269" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>58</v>
@@ -5184,32 +5213,32 @@
         <v>88</v>
       </c>
       <c r="D270" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D271" s="2">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>35</v>
@@ -5218,32 +5247,35 @@
         <v>22</v>
       </c>
       <c r="D272" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D273" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="274">
+        <v>97</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>35</v>
@@ -5252,15 +5284,15 @@
         <v>14</v>
       </c>
       <c r="D274" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>35</v>
@@ -5269,15 +5301,15 @@
         <v>12</v>
       </c>
       <c r="D275" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>35</v>
@@ -5286,15 +5318,15 @@
         <v>31</v>
       </c>
       <c r="D276" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>35</v>
@@ -5303,15 +5335,15 @@
         <v>29</v>
       </c>
       <c r="D277" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>35</v>
@@ -5326,9 +5358,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>35</v>
@@ -5343,9 +5375,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>35</v>
@@ -5354,13 +5386,13 @@
         <v>8</v>
       </c>
       <c r="D280" s="2">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>